--- a/key_value_storage/measurements/results/stableheapbtreemap.xlsx
+++ b/key_value_storage/measurements/results/stableheapbtreemap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="161">
   <si>
     <t/>
   </si>
@@ -67,190 +67,187 @@
     <t>Δ Allocated memory</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>7088</t>
-  </si>
-  <si>
-    <t>90224</t>
-  </si>
-  <si>
-    <t>1048912</t>
-  </si>
-  <si>
-    <t>12685944</t>
-  </si>
-  <si>
-    <t>149179864</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>89700</t>
+  </si>
+  <si>
+    <t>1048812</t>
+  </si>
+  <si>
+    <t>12685844</t>
+  </si>
+  <si>
+    <t>149179740</t>
   </si>
   <si>
     <t>Δ Reclaimed memory</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>4168</t>
+  </si>
+  <si>
+    <t>61672</t>
+  </si>
+  <si>
+    <t>766320</t>
+  </si>
+  <si>
+    <t>9859840</t>
+  </si>
+  <si>
+    <t>120915476</t>
+  </si>
+  <si>
+    <t>Δ Heap memory</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>2868</t>
+  </si>
+  <si>
+    <t>28028</t>
+  </si>
+  <si>
+    <t>282492</t>
+  </si>
+  <si>
+    <t>2826004</t>
+  </si>
+  <si>
+    <t>28264264</t>
+  </si>
+  <si>
+    <t>Δ Instructions</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>16102</t>
+  </si>
+  <si>
+    <t>377419</t>
+  </si>
+  <si>
+    <t>5073965</t>
+  </si>
+  <si>
+    <t>63380059</t>
+  </si>
+  <si>
+    <t>776477856</t>
+  </si>
+  <si>
+    <t>9187850453</t>
+  </si>
+  <si>
+    <t>Δ GC instructions</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>3700</t>
+  </si>
+  <si>
+    <t>54891</t>
+  </si>
+  <si>
+    <t>542544</t>
+  </si>
+  <si>
+    <t>5460971</t>
+  </si>
+  <si>
+    <t>54624453</t>
+  </si>
+  <si>
+    <t>546303172</t>
+  </si>
+  <si>
+    <t>Δ Mutator instructions</t>
+  </si>
+  <si>
+    <t>7083</t>
+  </si>
+  <si>
+    <t>23270</t>
+  </si>
+  <si>
+    <t>395207</t>
+  </si>
+  <si>
+    <t>5197974</t>
+  </si>
+  <si>
+    <t>64566068</t>
+  </si>
+  <si>
+    <t>788283886</t>
+  </si>
+  <si>
+    <t>9305856515</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>4204</t>
-  </si>
-  <si>
-    <t>61992</t>
-  </si>
-  <si>
-    <t>766404</t>
-  </si>
-  <si>
-    <t>9859924</t>
-  </si>
-  <si>
-    <t>120915584</t>
-  </si>
-  <si>
-    <t>Δ Heap memory</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>2884</t>
-  </si>
-  <si>
-    <t>28232</t>
-  </si>
-  <si>
-    <t>282508</t>
-  </si>
-  <si>
-    <t>2826020</t>
-  </si>
-  <si>
-    <t>28264280</t>
-  </si>
-  <si>
-    <t>Δ Instructions</t>
-  </si>
-  <si>
-    <t>2332</t>
-  </si>
-  <si>
-    <t>18043</t>
-  </si>
-  <si>
-    <t>380697</t>
-  </si>
-  <si>
-    <t>5094372</t>
-  </si>
-  <si>
-    <t>63386374</t>
-  </si>
-  <si>
-    <t>776485050</t>
-  </si>
-  <si>
-    <t>9187859019</t>
-  </si>
-  <si>
-    <t>Δ GC instructions</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>4070</t>
-  </si>
-  <si>
-    <t>55261</t>
-  </si>
-  <si>
-    <t>545650</t>
-  </si>
-  <si>
-    <t>5461341</t>
-  </si>
-  <si>
-    <t>54624823</t>
-  </si>
-  <si>
-    <t>546303542</t>
-  </si>
-  <si>
-    <t>Δ Mutator instructions</t>
-  </si>
-  <si>
-    <t>8515</t>
-  </si>
-  <si>
-    <t>25288</t>
-  </si>
-  <si>
-    <t>398562</t>
-  </si>
-  <si>
-    <t>5218458</t>
-  </si>
-  <si>
-    <t>64572460</t>
-  </si>
-  <si>
-    <t>788291157</t>
-  </si>
-  <si>
-    <t>9305865158</t>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>35292</t>
+  </si>
+  <si>
+    <t>472548</t>
+  </si>
+  <si>
+    <t>4725060</t>
+  </si>
+  <si>
+    <t>59250096</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>2364</t>
-  </si>
-  <si>
-    <t>35316</t>
-  </si>
-  <si>
-    <t>472596</t>
-  </si>
-  <si>
-    <t>4725108</t>
-  </si>
-  <si>
-    <t>59250156</t>
-  </si>
-  <si>
-    <t>1559</t>
-  </si>
-  <si>
-    <t>13556</t>
-  </si>
-  <si>
-    <t>241567</t>
-  </si>
-  <si>
-    <t>3711725</t>
-  </si>
-  <si>
-    <t>51522112</t>
-  </si>
-  <si>
-    <t>605453674</t>
-  </si>
-  <si>
-    <t>7391358178</t>
-  </si>
-  <si>
-    <t>2390000239</t>
+    <t>644</t>
+  </si>
+  <si>
+    <t>12055</t>
+  </si>
+  <si>
+    <t>238726</t>
+  </si>
+  <si>
+    <t>3713974</t>
+  </si>
+  <si>
+    <t>51516332</t>
+  </si>
+  <si>
+    <t>605447013</t>
+  </si>
+  <si>
+    <t>7391350244</t>
+  </si>
+  <si>
+    <t>2390000000</t>
   </si>
   <si>
     <t>-1840</t>
@@ -262,28 +259,28 @@
     <t>-158608</t>
   </si>
   <si>
-    <t>7742</t>
-  </si>
-  <si>
-    <t>20801</t>
-  </si>
-  <si>
-    <t>259432</t>
-  </si>
-  <si>
-    <t>3835811</t>
-  </si>
-  <si>
-    <t>52708198</t>
-  </si>
-  <si>
-    <t>617259781</t>
-  </si>
-  <si>
-    <t>7509364317</t>
-  </si>
-  <si>
-    <t>3570006399</t>
+    <t>6750</t>
+  </si>
+  <si>
+    <t>19223</t>
+  </si>
+  <si>
+    <t>256514</t>
+  </si>
+  <si>
+    <t>3837983</t>
+  </si>
+  <si>
+    <t>52702341</t>
+  </si>
+  <si>
+    <t>617253043</t>
+  </si>
+  <si>
+    <t>7509356306</t>
+  </si>
+  <si>
+    <t>3570006083</t>
   </si>
   <si>
     <t>327680</t>
@@ -292,46 +289,46 @@
     <t>13565952</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>6344</t>
-  </si>
-  <si>
-    <t>86648</t>
-  </si>
-  <si>
-    <t>1105208</t>
-  </si>
-  <si>
-    <t>11050232</t>
-  </si>
-  <si>
-    <t>134500304</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>15921</t>
-  </si>
-  <si>
-    <t>266915</t>
-  </si>
-  <si>
-    <t>3999625</t>
-  </si>
-  <si>
-    <t>54768288</t>
-  </si>
-  <si>
-    <t>637906666</t>
-  </si>
-  <si>
-    <t>7752900876</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>6280</t>
+  </si>
+  <si>
+    <t>86584</t>
+  </si>
+  <si>
+    <t>1105096</t>
+  </si>
+  <si>
+    <t>11050120</t>
+  </si>
+  <si>
+    <t>134500168</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>14205</t>
+  </si>
+  <si>
+    <t>263821</t>
+  </si>
+  <si>
+    <t>4001625</t>
+  </si>
+  <si>
+    <t>54762181</t>
+  </si>
+  <si>
+    <t>637899616</t>
+  </si>
+  <si>
+    <t>7752892640</t>
   </si>
   <si>
     <t>368</t>
@@ -346,25 +343,25 @@
     <t>76176</t>
   </si>
   <si>
-    <t>8172</t>
-  </si>
-  <si>
-    <t>23166</t>
-  </si>
-  <si>
-    <t>284780</t>
-  </si>
-  <si>
-    <t>4123711</t>
-  </si>
-  <si>
-    <t>55954374</t>
-  </si>
-  <si>
-    <t>649712773</t>
-  </si>
-  <si>
-    <t>7870907015</t>
+    <t>6965</t>
+  </si>
+  <si>
+    <t>21373</t>
+  </si>
+  <si>
+    <t>281609</t>
+  </si>
+  <si>
+    <t>4125634</t>
+  </si>
+  <si>
+    <t>55948190</t>
+  </si>
+  <si>
+    <t>649705646</t>
+  </si>
+  <si>
+    <t>7870898702</t>
   </si>
   <si>
     <t>131072</t>
@@ -376,130 +373,130 @@
     <t>90767360</t>
   </si>
   <si>
-    <t>7328</t>
-  </si>
-  <si>
-    <t>118916</t>
-  </si>
-  <si>
-    <t>1512080</t>
-  </si>
-  <si>
-    <t>20151248</t>
-  </si>
-  <si>
-    <t>253529672</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>10212</t>
-  </si>
-  <si>
-    <t>147148</t>
-  </si>
-  <si>
-    <t>1794588</t>
-  </si>
-  <si>
-    <t>22977268</t>
-  </si>
-  <si>
-    <t>281793952</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>-176</t>
-  </si>
-  <si>
-    <t>-2884</t>
-  </si>
-  <si>
-    <t>-28232</t>
-  </si>
-  <si>
-    <t>-282508</t>
-  </si>
-  <si>
-    <t>-2826020</t>
-  </si>
-  <si>
-    <t>-28264280</t>
-  </si>
-  <si>
-    <t>2692</t>
-  </si>
-  <si>
-    <t>30090</t>
-  </si>
-  <si>
-    <t>818832</t>
-  </si>
-  <si>
-    <t>10710921</t>
-  </si>
-  <si>
-    <t>121953572</t>
-  </si>
-  <si>
-    <t>1382661701</t>
-  </si>
-  <si>
-    <t>15485988376</t>
-  </si>
-  <si>
-    <t>2240000224</t>
-  </si>
-  <si>
-    <t>-740</t>
-  </si>
-  <si>
-    <t>-4070</t>
-  </si>
-  <si>
-    <t>-55261</t>
-  </si>
-  <si>
-    <t>-546018</t>
-  </si>
-  <si>
-    <t>-5460973</t>
-  </si>
-  <si>
-    <t>-54615623</t>
-  </si>
-  <si>
-    <t>-546221110</t>
-  </si>
-  <si>
-    <t>8875</t>
-  </si>
-  <si>
-    <t>37335</t>
-  </si>
-  <si>
-    <t>836697</t>
-  </si>
-  <si>
-    <t>10835007</t>
-  </si>
-  <si>
-    <t>123139658</t>
-  </si>
-  <si>
-    <t>1394467808</t>
-  </si>
-  <si>
-    <t>15603994515</t>
-  </si>
-  <si>
-    <t>3420006384</t>
+    <t>7228</t>
+  </si>
+  <si>
+    <t>117924</t>
+  </si>
+  <si>
+    <t>1511980</t>
+  </si>
+  <si>
+    <t>20151148</t>
+  </si>
+  <si>
+    <t>253529572</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>10096</t>
+  </si>
+  <si>
+    <t>145952</t>
+  </si>
+  <si>
+    <t>1794472</t>
+  </si>
+  <si>
+    <t>22977152</t>
+  </si>
+  <si>
+    <t>281793836</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>-160</t>
+  </si>
+  <si>
+    <t>-2868</t>
+  </si>
+  <si>
+    <t>-28028</t>
+  </si>
+  <si>
+    <t>-282492</t>
+  </si>
+  <si>
+    <t>-2826004</t>
+  </si>
+  <si>
+    <t>-28264264</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>25947</t>
+  </si>
+  <si>
+    <t>808048</t>
+  </si>
+  <si>
+    <t>10708393</t>
+  </si>
+  <si>
+    <t>121941330</t>
+  </si>
+  <si>
+    <t>1382648911</t>
+  </si>
+  <si>
+    <t>15485973183</t>
+  </si>
+  <si>
+    <t>2240000000</t>
+  </si>
+  <si>
+    <t>-370</t>
+  </si>
+  <si>
+    <t>-3700</t>
+  </si>
+  <si>
+    <t>-54891</t>
+  </si>
+  <si>
+    <t>-542912</t>
+  </si>
+  <si>
+    <t>-5460603</t>
+  </si>
+  <si>
+    <t>-54615253</t>
+  </si>
+  <si>
+    <t>-546220740</t>
+  </si>
+  <si>
+    <t>7195</t>
+  </si>
+  <si>
+    <t>33115</t>
+  </si>
+  <si>
+    <t>825836</t>
+  </si>
+  <si>
+    <t>10832402</t>
+  </si>
+  <si>
+    <t>123127339</t>
+  </si>
+  <si>
+    <t>1394454941</t>
+  </si>
+  <si>
+    <t>15603979245</t>
+  </si>
+  <si>
+    <t>3420006083</t>
   </si>
 </sst>
 </file>
@@ -1009,25 +1006,25 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -1035,28 +1032,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1064,28 +1061,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1093,28 +1090,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1122,28 +1119,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1262,28 +1259,28 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1291,33 +1288,33 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>69</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1346,36 +1343,36 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>75</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>76</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1390,13 +1387,13 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
         <v>79</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>80</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1404,31 +1401,31 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>86</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>87</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>88</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1526,13 +1523,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -1543,25 +1540,25 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>96</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>97</v>
-      </c>
-      <c r="H4" t="s">
-        <v>98</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -1572,25 +1569,25 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>96</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1627,28 +1624,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
         <v>99</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>103</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>105</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1656,7 +1653,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1668,16 +1665,16 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
         <v>106</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1685,28 +1682,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
         <v>110</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>111</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>112</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>114</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>115</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1808,13 +1805,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>118</v>
-      </c>
-      <c r="H3" t="s">
-        <v>119</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -1825,28 +1822,28 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
         <v>120</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>121</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>122</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>123</v>
       </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1854,54 +1851,54 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>126</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>127</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>128</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>129</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>130</v>
       </c>
-      <c r="H5" t="s">
-        <v>131</v>
-      </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
         <v>132</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>133</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>134</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>135</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>136</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>137</v>
-      </c>
-      <c r="H6" t="s">
-        <v>138</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1909,57 +1906,57 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>140</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>141</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>142</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>143</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>144</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>145</v>
-      </c>
-      <c r="I7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
         <v>147</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>148</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>149</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>150</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>151</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>152</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1967,31 +1964,31 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
         <v>154</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>155</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>156</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>158</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>159</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>160</v>
-      </c>
-      <c r="I9" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
